--- a/工作量收集.xlsx
+++ b/工作量收集.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A47C30-91AC-417B-9AA9-5917E584C449}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>工作周</t>
   </si>
@@ -226,11 +227,19 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>软件架构文档的框架以及1,2,5,6部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD中对于工程开发难易的改进设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,22 +590,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="43.83203125" customWidth="1"/>
+    <col min="3" max="3" width="43.77734375" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="32.08203125" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -636,7 +645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -648,7 +657,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -662,7 +671,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -676,7 +685,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -690,7 +699,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -702,7 +711,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -718,7 +727,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -732,7 +741,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -746,7 +755,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -758,7 +767,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -770,7 +779,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -782,7 +791,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -798,7 +807,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -812,7 +821,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -826,7 +835,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -840,7 +849,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -852,7 +861,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -864,7 +873,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -880,7 +889,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -892,7 +901,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -904,7 +913,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -912,11 +921,13 @@
       <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -928,7 +939,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -940,7 +951,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -956,7 +967,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -968,7 +979,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -980,7 +991,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -988,11 +999,13 @@
       <c r="C29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
@@ -1004,7 +1017,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -1016,7 +1029,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>48</v>
       </c>
@@ -1028,7 +1041,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -1038,7 +1051,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1048,7 +1061,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -1058,7 +1071,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
         <v>19</v>
@@ -1068,7 +1081,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
         <v>22</v>
@@ -1078,7 +1091,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>49</v>
       </c>
@@ -1090,7 +1103,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -1100,7 +1113,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -1110,7 +1123,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -1120,7 +1133,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -1130,7 +1143,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>22</v>
@@ -1140,7 +1153,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -1152,7 +1165,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
@@ -1162,7 +1175,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -1172,7 +1185,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
         <v>16</v>
@@ -1182,7 +1195,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
         <v>19</v>
@@ -1192,7 +1205,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -1202,7 +1215,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
@@ -1214,7 +1227,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
         <v>11</v>
@@ -1224,7 +1237,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -1234,7 +1247,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
         <v>16</v>
@@ -1244,7 +1257,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -1254,7 +1267,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
         <v>22</v>
@@ -1264,7 +1277,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>52</v>
       </c>
@@ -1276,7 +1289,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -1286,7 +1299,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -1296,7 +1309,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
         <v>16</v>
@@ -1306,7 +1319,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -1316,7 +1329,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>22</v>
@@ -1326,7 +1339,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>53</v>
       </c>
@@ -1338,7 +1351,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
         <v>11</v>
@@ -1348,7 +1361,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -1358,7 +1371,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
         <v>16</v>
@@ -1368,7 +1381,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -1378,7 +1391,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>22</v>
@@ -1388,7 +1401,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>54</v>
       </c>
@@ -1400,7 +1413,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
         <v>11</v>
@@ -1410,7 +1423,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="2" t="s">
         <v>13</v>
@@ -1420,7 +1433,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="2" t="s">
         <v>16</v>
@@ -1430,7 +1443,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -1440,7 +1453,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="2" t="s">
         <v>22</v>

--- a/工作量收集.xlsx
+++ b/工作量收集.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BFB8BD-409E-B045-ACBB-E86F764AF5F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
   <si>
     <t>工作周</t>
   </si>
@@ -226,12 +227,16 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>SAD文档-撰写开发视图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,22 +586,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="43.83203125" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="32.08203125" customWidth="1"/>
+    <col min="5" max="5" width="38.5" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -636,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -648,7 +653,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -662,7 +667,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -676,7 +681,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -690,7 +695,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -702,7 +707,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -718,7 +723,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -732,7 +737,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -746,7 +751,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -758,7 +763,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -770,7 +775,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -782,7 +787,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -798,7 +803,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -812,7 +817,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -826,7 +831,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -840,7 +845,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -852,7 +857,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -864,7 +869,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -880,7 +885,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -892,7 +897,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -900,11 +905,13 @@
       <c r="C22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -916,7 +923,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -928,7 +935,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -940,7 +947,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -956,7 +963,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -968,7 +975,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -980,7 +987,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -992,7 +999,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
@@ -1004,7 +1011,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -1016,7 +1023,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
         <v>48</v>
       </c>
@@ -1028,7 +1035,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -1038,7 +1045,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1048,7 +1055,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -1058,7 +1065,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
         <v>19</v>
@@ -1068,7 +1075,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
         <v>22</v>
@@ -1078,7 +1085,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
         <v>49</v>
       </c>
@@ -1090,7 +1097,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -1100,7 +1107,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -1110,7 +1117,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -1120,7 +1127,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -1130,7 +1137,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>22</v>
@@ -1140,7 +1147,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -1152,7 +1159,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
@@ -1162,7 +1169,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -1172,7 +1179,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
         <v>16</v>
@@ -1182,7 +1189,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
         <v>19</v>
@@ -1192,7 +1199,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -1202,7 +1209,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
@@ -1214,7 +1221,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
         <v>11</v>
@@ -1224,7 +1231,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -1234,7 +1241,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
         <v>16</v>
@@ -1244,7 +1251,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -1254,7 +1261,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
         <v>22</v>
@@ -1264,7 +1271,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
         <v>52</v>
       </c>
@@ -1276,7 +1283,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -1286,7 +1293,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -1296,7 +1303,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
         <v>16</v>
@@ -1306,7 +1313,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -1316,7 +1323,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>22</v>
@@ -1326,7 +1333,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
         <v>53</v>
       </c>
@@ -1338,7 +1345,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
         <v>11</v>
@@ -1348,7 +1355,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -1358,7 +1365,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
         <v>16</v>
@@ -1368,7 +1375,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -1378,7 +1385,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>22</v>
@@ -1388,7 +1395,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="4" t="s">
         <v>54</v>
       </c>
@@ -1400,7 +1407,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
         <v>11</v>
@@ -1410,7 +1417,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="4"/>
       <c r="B70" s="2" t="s">
         <v>13</v>
@@ -1420,7 +1427,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="4"/>
       <c r="B71" s="2" t="s">
         <v>16</v>
@@ -1430,7 +1437,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="4"/>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -1440,7 +1447,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="4"/>
       <c r="B73" s="2" t="s">
         <v>22</v>

--- a/工作量收集.xlsx
+++ b/工作量收集.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935AE06C-10CE-5E43-981D-5BA3B3294046}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB65B8D-6BE3-0447-B110-8E4D2583553C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
   <si>
     <t>工作周</t>
   </si>
@@ -229,6 +229,14 @@
   </si>
   <si>
     <t>SAD文档-开发视图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制故障树</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成书上题的任务</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -589,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -908,7 +916,9 @@
       <c r="D22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6">
@@ -983,7 +993,9 @@
       <c r="C28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>

--- a/工作量收集.xlsx
+++ b/工作量收集.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB65B8D-6BE3-0447-B110-8E4D2583553C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
   <si>
     <t>工作周</t>
   </si>
@@ -155,12 +154,6 @@
   </si>
   <si>
     <t>WEEK9</t>
-  </si>
-  <si>
-    <t>查找资料、模板、进行小组分工安排；</t>
-  </si>
-  <si>
-    <t>学习SDD并撰写笔记</t>
   </si>
   <si>
     <t>SDD笔记</t>
@@ -232,19 +225,91 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>绘制故障树</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>完成书上题的任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描绘故障树，分解为割集树</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD质量属性-可修改性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体系结构风格评价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找资料、模板、进行小组分工安排；+ SDD笔记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找资料、模板、进行小组分工安排；+SDD笔记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD格式调整+补充报告论坛架构内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD 运行视图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD质量属性-安全性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD  逻辑视图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成书上题的任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD质量属性-可复用性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD文档1、2、5、6部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD文档 4部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1设计方法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2模块评估</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描绘故障树，分解为割集树</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD格式调整+内容整合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD  部署视图+用例视图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD质量属性-开发难易的改进</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,14 +659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="43.83203125" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
@@ -609,7 +674,7 @@
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -643,13 +708,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -661,7 +726,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -675,7 +740,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -689,7 +754,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -703,7 +768,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -715,7 +780,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -731,7 +796,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -745,7 +810,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -759,7 +824,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -771,7 +836,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -783,7 +848,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -795,7 +860,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -811,7 +876,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -825,7 +890,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -839,7 +904,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -853,7 +918,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -865,7 +930,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -877,7 +942,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -885,79 +950,97 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -965,141 +1048,165 @@
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -1109,7 +1216,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -1119,7 +1226,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -1129,7 +1236,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -1139,7 +1246,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -1149,7 +1256,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>22</v>
@@ -1159,9 +1266,9 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
@@ -1171,7 +1278,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
@@ -1181,7 +1288,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -1191,7 +1298,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
         <v>16</v>
@@ -1201,7 +1308,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
         <v>19</v>
@@ -1211,7 +1318,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -1221,9 +1328,9 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
@@ -1233,7 +1340,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
         <v>11</v>
@@ -1243,7 +1350,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -1253,7 +1360,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
         <v>16</v>
@@ -1263,7 +1370,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -1273,7 +1380,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
         <v>22</v>
@@ -1283,9 +1390,9 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
@@ -1295,7 +1402,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -1305,7 +1412,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -1315,7 +1422,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
         <v>16</v>
@@ -1325,7 +1432,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -1335,7 +1442,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>22</v>
@@ -1345,9 +1452,9 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>7</v>
@@ -1357,7 +1464,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
         <v>11</v>
@@ -1367,7 +1474,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -1377,7 +1484,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
         <v>16</v>
@@ -1387,7 +1494,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -1397,7 +1504,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>22</v>
@@ -1407,9 +1514,9 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>7</v>
@@ -1419,7 +1526,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
         <v>11</v>
@@ -1429,7 +1536,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="2" t="s">
         <v>13</v>
@@ -1439,7 +1546,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="2" t="s">
         <v>16</v>
@@ -1449,7 +1556,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -1459,7 +1566,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="2" t="s">
         <v>22</v>

--- a/工作量收集.xlsx
+++ b/工作量收集.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71A7246-62C7-4206-92BA-0B74E13BBFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
   <si>
     <t>工作周</t>
   </si>
@@ -304,11 +305,19 @@
     <t>SAD质量属性-开发难易的改进</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>6.1设计方法-自顶向下分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖注入的学习与总结</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,22 +668,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="43.83203125" customWidth="1"/>
+    <col min="3" max="3" width="43.77734375" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -714,7 +723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -726,7 +735,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -740,7 +749,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -754,7 +763,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -768,7 +777,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -780,7 +789,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -796,7 +805,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -810,7 +819,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -824,7 +833,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -836,7 +845,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -848,7 +857,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -860,7 +869,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -876,7 +885,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -890,7 +899,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -904,7 +913,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -918,7 +927,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -930,7 +939,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -942,7 +951,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -960,7 +969,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -976,7 +985,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -992,7 +1001,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -1008,7 +1017,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -1024,7 +1033,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -1040,7 +1049,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -1056,7 +1065,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -1070,7 +1079,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1084,7 +1093,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -1093,12 +1102,12 @@
         <v>45</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
@@ -1112,7 +1121,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -1126,7 +1135,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1142,7 +1151,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -1154,7 +1163,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1166,7 +1175,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -1180,7 +1189,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
         <v>19</v>
@@ -1192,7 +1201,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
         <v>22</v>
@@ -1204,7 +1213,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -1216,7 +1225,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -1226,7 +1235,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -1236,17 +1245,19 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -1256,7 +1267,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>22</v>
@@ -1266,7 +1277,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -1278,7 +1289,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
@@ -1288,7 +1299,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -1298,7 +1309,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
         <v>16</v>
@@ -1308,7 +1319,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
         <v>19</v>
@@ -1318,7 +1329,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -1328,7 +1339,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -1340,7 +1351,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
         <v>11</v>
@@ -1350,7 +1361,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -1360,7 +1371,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
         <v>16</v>
@@ -1370,7 +1381,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -1380,7 +1391,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
         <v>22</v>
@@ -1390,7 +1401,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -1402,7 +1413,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -1412,7 +1423,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -1422,7 +1433,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
         <v>16</v>
@@ -1432,7 +1443,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -1442,7 +1453,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>22</v>
@@ -1452,7 +1463,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>51</v>
       </c>
@@ -1464,7 +1475,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
         <v>11</v>
@@ -1474,7 +1485,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -1484,7 +1495,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
         <v>16</v>
@@ -1494,7 +1505,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -1504,7 +1515,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>22</v>
@@ -1514,7 +1525,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>52</v>
       </c>
@@ -1526,7 +1537,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
         <v>11</v>
@@ -1536,7 +1547,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="2" t="s">
         <v>13</v>
@@ -1546,7 +1557,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="2" t="s">
         <v>16</v>
@@ -1556,7 +1567,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -1566,7 +1577,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="2" t="s">
         <v>22</v>

--- a/工作量收集.xlsx
+++ b/工作量收集.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71A7246-62C7-4206-92BA-0B74E13BBFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
   <si>
     <t>工作周</t>
   </si>
@@ -290,10 +289,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>描绘故障树，分解为割集树</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SAD格式调整+内容整合</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -311,13 +306,17 @@
   </si>
   <si>
     <t>依赖注入的学习与总结</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式举例及特点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -668,22 +667,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="43.77734375" customWidth="1"/>
+    <col min="3" max="3" width="43.75" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" customWidth="1"/>
+    <col min="5" max="5" width="38.4140625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -723,7 +722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -735,7 +734,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -749,7 +748,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -763,7 +762,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -777,7 +776,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -789,7 +788,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -805,7 +804,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -819,7 +818,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -833,7 +832,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -845,7 +844,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -857,7 +856,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -869,7 +868,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -885,7 +884,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -899,7 +898,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -913,7 +912,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -927,7 +926,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -939,7 +938,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -951,7 +950,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -962,14 +961,14 @@
         <v>59</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -985,7 +984,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1001,7 +1000,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -1013,11 +1012,11 @@
         <v>67</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -1033,7 +1032,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -1049,7 +1048,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -1065,7 +1064,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -1079,7 +1078,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1088,12 +1087,12 @@
         <v>45</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -1102,12 +1101,12 @@
         <v>45</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
@@ -1121,7 +1120,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -1135,7 +1134,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1151,7 +1150,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -1163,7 +1162,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1175,13 +1174,13 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>58</v>
@@ -1189,7 +1188,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
         <v>19</v>
@@ -1201,7 +1200,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
         <v>22</v>
@@ -1213,19 +1212,21 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -1235,7 +1236,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -1245,19 +1246,19 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -1267,7 +1268,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>22</v>
@@ -1277,7 +1278,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -1289,7 +1290,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
@@ -1299,7 +1300,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -1309,7 +1310,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
         <v>16</v>
@@ -1319,7 +1320,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
         <v>19</v>
@@ -1329,7 +1330,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -1339,7 +1340,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -1351,7 +1352,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
         <v>11</v>
@@ -1361,7 +1362,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -1371,7 +1372,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
         <v>16</v>
@@ -1381,7 +1382,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -1391,7 +1392,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
         <v>22</v>
@@ -1401,7 +1402,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -1413,7 +1414,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -1423,7 +1424,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -1433,7 +1434,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
         <v>16</v>
@@ -1443,7 +1444,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -1453,7 +1454,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>22</v>
@@ -1463,7 +1464,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>51</v>
       </c>
@@ -1475,7 +1476,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
         <v>11</v>
@@ -1485,7 +1486,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -1495,7 +1496,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
         <v>16</v>
@@ -1505,7 +1506,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -1515,7 +1516,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>22</v>
@@ -1525,7 +1526,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>52</v>
       </c>
@@ -1537,7 +1538,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
         <v>11</v>
@@ -1547,7 +1548,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="2" t="s">
         <v>13</v>
@@ -1557,7 +1558,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="2" t="s">
         <v>16</v>
@@ -1567,7 +1568,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -1577,7 +1578,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="2" t="s">
         <v>22</v>

--- a/工作量收集.xlsx
+++ b/工作量收集.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459C6B42-4284-4947-AF4C-7212E66B033F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
   <si>
     <t>工作周</t>
   </si>
@@ -312,11 +313,19 @@
     <t>设计模式举例及特点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>模块评估-增量式开发、抽象、通用性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBS设计模式-简单工厂模式和DAO模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -667,22 +676,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="43.75" customWidth="1"/>
+    <col min="3" max="3" width="43.73046875" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38.4140625" customWidth="1"/>
+    <col min="5" max="5" width="38.3984375" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -722,7 +731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -734,7 +743,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -748,7 +757,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -762,7 +771,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -776,7 +785,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -788,7 +797,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -804,7 +813,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -818,7 +827,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -832,7 +841,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -844,7 +853,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -856,7 +865,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -868,7 +877,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -884,7 +893,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -898,7 +907,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -912,7 +921,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -926,7 +935,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -938,7 +947,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -950,7 +959,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -968,7 +977,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -984,7 +993,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1000,7 +1009,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -1016,7 +1025,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -1032,7 +1041,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -1048,7 +1057,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -1064,7 +1073,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -1078,7 +1087,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1092,7 +1101,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -1106,7 +1115,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
@@ -1120,7 +1129,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -1134,7 +1143,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1150,19 +1159,21 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D33" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1174,7 +1185,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -1188,7 +1199,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
         <v>19</v>
@@ -1200,7 +1211,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
         <v>22</v>
@@ -1212,7 +1223,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -1226,17 +1237,19 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -1246,7 +1259,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -1258,7 +1271,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -1268,7 +1281,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>22</v>
@@ -1278,7 +1291,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -1290,7 +1303,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
@@ -1300,7 +1313,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -1310,7 +1323,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
         <v>16</v>
@@ -1320,7 +1333,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
         <v>19</v>
@@ -1330,7 +1343,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -1340,7 +1353,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -1352,7 +1365,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
         <v>11</v>
@@ -1362,7 +1375,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -1372,7 +1385,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
         <v>16</v>
@@ -1382,7 +1395,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -1392,7 +1405,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
         <v>22</v>
@@ -1402,7 +1415,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -1414,7 +1427,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -1424,7 +1437,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -1434,7 +1447,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
         <v>16</v>
@@ -1444,7 +1457,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -1454,7 +1467,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>22</v>
@@ -1464,7 +1477,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
         <v>51</v>
       </c>
@@ -1476,7 +1489,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
         <v>11</v>
@@ -1486,7 +1499,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -1496,7 +1509,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
         <v>16</v>
@@ -1506,7 +1519,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -1516,7 +1529,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>22</v>
@@ -1526,7 +1539,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
         <v>52</v>
       </c>
@@ -1538,7 +1551,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
         <v>11</v>
@@ -1548,7 +1561,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
       <c r="B70" s="2" t="s">
         <v>13</v>
@@ -1558,7 +1571,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
       <c r="B71" s="2" t="s">
         <v>16</v>
@@ -1568,7 +1581,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -1578,7 +1591,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
       <c r="B73" s="2" t="s">
         <v>22</v>

--- a/工作量收集.xlsx
+++ b/工作量收集.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459C6B42-4284-4947-AF4C-7212E66B033F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="19400" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
   <si>
     <t>工作周</t>
   </si>
@@ -321,11 +320,19 @@
     <t>BBS设计模式-简单工厂模式和DAO模式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>代码编写，实现具体功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛详细设计报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,22 +683,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="43.73046875" customWidth="1"/>
+    <col min="3" max="3" width="43.75" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38.3984375" customWidth="1"/>
+    <col min="5" max="5" width="38.4140625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -731,7 +738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -743,7 +750,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -757,7 +764,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -771,7 +778,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -785,7 +792,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -797,7 +804,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -813,7 +820,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -827,7 +834,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -841,7 +848,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -853,7 +860,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -865,7 +872,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -877,7 +884,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -893,7 +900,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -907,7 +914,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -921,7 +928,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -935,7 +942,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -947,7 +954,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -959,7 +966,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -977,7 +984,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -993,7 +1000,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1009,7 +1016,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -1025,7 +1032,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -1041,7 +1048,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -1057,7 +1064,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -1073,7 +1080,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -1087,7 +1094,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1101,7 +1108,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -1115,7 +1122,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
@@ -1129,7 +1136,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -1143,7 +1150,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1159,7 +1166,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -1173,7 +1180,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1185,7 +1192,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -1199,7 +1206,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
         <v>19</v>
@@ -1211,7 +1218,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
         <v>22</v>
@@ -1223,7 +1230,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -1233,11 +1240,13 @@
       <c r="C38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -1245,21 +1254,25 @@
       <c r="C39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -1267,155 +1280,209 @@
       <c r="C41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -1427,7 +1494,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -1437,7 +1504,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -1447,7 +1514,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
         <v>16</v>
@@ -1457,7 +1524,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -1467,7 +1534,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>22</v>
@@ -1477,7 +1544,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>51</v>
       </c>
@@ -1489,7 +1556,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
         <v>11</v>
@@ -1499,7 +1566,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -1509,7 +1576,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
         <v>16</v>
@@ -1519,7 +1586,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -1529,7 +1596,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>22</v>
@@ -1539,7 +1606,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>52</v>
       </c>
@@ -1551,7 +1618,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
         <v>11</v>
@@ -1561,7 +1628,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="2" t="s">
         <v>13</v>
@@ -1571,7 +1638,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="2" t="s">
         <v>16</v>
@@ -1581,7 +1648,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -1591,7 +1658,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="2" t="s">
         <v>22</v>

--- a/工作量收集.xlsx
+++ b/工作量收集.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D121252-F089-7B43-BF4D-E2693C028C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="19400" windowHeight="11600"/>
+    <workbookView xWindow="10740" yWindow="980" windowWidth="19400" windowHeight="11600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="83">
   <si>
     <t>工作周</t>
   </si>
@@ -328,12 +329,20 @@
     <t>论坛详细设计报告</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>设计模式-中介者观察者模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试工具的学习和使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,22 +692,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="43.75" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38.4140625" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -738,7 +747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -750,7 +759,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -764,7 +773,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -778,7 +787,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -792,7 +801,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -804,7 +813,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -820,7 +829,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -834,7 +843,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -848,7 +857,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -860,7 +869,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -872,7 +881,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -884,7 +893,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -900,7 +909,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -914,7 +923,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -928,7 +937,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -942,7 +951,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -954,7 +963,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -966,7 +975,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -984,7 +993,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -1000,7 +1009,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1016,7 +1025,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -1032,7 +1041,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -1048,7 +1057,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -1064,7 +1073,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -1080,7 +1089,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -1094,7 +1103,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1108,7 +1117,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -1122,7 +1131,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
@@ -1136,7 +1145,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -1150,7 +1159,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1166,7 +1175,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -1180,7 +1189,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1192,7 +1201,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -1206,7 +1215,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
         <v>19</v>
@@ -1218,7 +1227,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
         <v>22</v>
@@ -1230,7 +1239,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -1246,7 +1255,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -1260,19 +1269,21 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D40" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -1286,7 +1297,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -1298,19 +1309,18 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -1326,7 +1336,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
@@ -1340,7 +1350,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -1354,7 +1364,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
         <v>16</v>
@@ -1368,7 +1378,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
         <v>19</v>
@@ -1382,7 +1392,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -1396,7 +1406,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -1412,7 +1422,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
         <v>11</v>
@@ -1426,7 +1436,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -1440,7 +1450,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
         <v>16</v>
@@ -1454,7 +1464,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -1468,7 +1478,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
         <v>22</v>
@@ -1482,7 +1492,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -1494,7 +1504,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -1504,17 +1514,19 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
         <v>16</v>
@@ -1524,7 +1536,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -1534,7 +1546,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>22</v>
@@ -1544,7 +1556,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
         <v>51</v>
       </c>
@@ -1556,7 +1568,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
         <v>11</v>
@@ -1566,7 +1578,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -1576,7 +1588,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
         <v>16</v>
@@ -1586,7 +1598,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -1596,7 +1608,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>22</v>
@@ -1606,7 +1618,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="4" t="s">
         <v>52</v>
       </c>
@@ -1618,7 +1630,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
         <v>11</v>
@@ -1628,7 +1640,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="4"/>
       <c r="B70" s="2" t="s">
         <v>13</v>
@@ -1638,7 +1650,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="4"/>
       <c r="B71" s="2" t="s">
         <v>16</v>
@@ -1648,7 +1660,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="4"/>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -1658,7 +1670,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="4"/>
       <c r="B73" s="2" t="s">
         <v>22</v>

--- a/工作量收集.xlsx
+++ b/工作量收集.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D121252-F089-7B43-BF4D-E2693C028C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972781DA-158D-4C01-9E1F-79A1EDE39881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="980" windowWidth="19400" windowHeight="11600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6852" yWindow="708" windowWidth="20532" windowHeight="11748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="85">
   <si>
     <t>工作周</t>
   </si>
@@ -337,12 +337,20 @@
     <t>单元测试工具的学习和使用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>模块评估-模块化、结构、信息隐藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBS设计模式-中介者建造者模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,11 +703,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="43.6640625" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
@@ -707,7 +715,7 @@
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -747,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -759,7 +767,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -773,7 +781,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -787,7 +795,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -801,7 +809,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -813,7 +821,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -829,7 +837,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -843,7 +851,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -857,7 +865,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -869,7 +877,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -881,7 +889,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -893,7 +901,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -909,7 +917,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -923,7 +931,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -937,7 +945,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -951,7 +959,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -963,7 +971,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -975,7 +983,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -993,7 +1001,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -1009,7 +1017,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1025,7 +1033,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -1041,7 +1049,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -1057,7 +1065,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -1073,7 +1081,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -1089,7 +1097,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -1103,7 +1111,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1117,7 +1125,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -1131,7 +1139,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
@@ -1145,7 +1153,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -1159,7 +1167,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1175,7 +1183,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -1189,7 +1197,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1201,7 +1209,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -1215,7 +1223,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
         <v>19</v>
@@ -1227,19 +1235,21 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D37" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -1255,7 +1265,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -1269,7 +1279,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -1283,7 +1293,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -1297,7 +1307,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -1309,18 +1319,21 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C43" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D43" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -1336,7 +1349,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
@@ -1350,7 +1363,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -1364,7 +1377,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
         <v>16</v>
@@ -1378,7 +1391,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
         <v>19</v>
@@ -1392,7 +1405,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -1406,7 +1419,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -1422,7 +1435,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
         <v>11</v>
@@ -1436,7 +1449,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -1450,7 +1463,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
         <v>16</v>
@@ -1464,7 +1477,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -1478,7 +1491,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
         <v>22</v>
@@ -1492,7 +1505,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -1504,7 +1517,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -1514,7 +1527,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -1526,7 +1539,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
         <v>16</v>
@@ -1536,7 +1549,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -1546,7 +1559,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>22</v>
@@ -1556,7 +1569,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>51</v>
       </c>
@@ -1568,7 +1581,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
         <v>11</v>
@@ -1578,7 +1591,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -1588,7 +1601,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
         <v>16</v>
@@ -1598,7 +1611,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -1608,7 +1621,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>22</v>
@@ -1618,7 +1631,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>52</v>
       </c>
@@ -1630,7 +1643,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
         <v>11</v>
@@ -1640,7 +1653,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="2" t="s">
         <v>13</v>
@@ -1650,7 +1663,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="2" t="s">
         <v>16</v>
@@ -1660,7 +1673,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -1670,7 +1683,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="2" t="s">
         <v>22</v>

--- a/工作量收集.xlsx
+++ b/工作量收集.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D121252-F089-7B43-BF4D-E2693C028C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="980" windowWidth="19400" windowHeight="11600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10740" yWindow="980" windowWidth="19400" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
   <si>
     <t>工作周</t>
   </si>
@@ -334,15 +333,24 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>单元测试工具的学习和使用</t>
+    <t>单元测试工具学习使用</t>
+  </si>
+  <si>
+    <t>白盒黑盒测试特点</t>
+  </si>
+  <si>
+    <t>了解软件测试</t>
+  </si>
+  <si>
+    <t>单元测试工具学习使用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,14 +700,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="43.6640625" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
@@ -707,7 +715,7 @@
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -747,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -759,7 +767,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -773,7 +781,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -787,7 +795,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -801,7 +809,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -813,7 +821,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -829,7 +837,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -843,7 +851,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -857,7 +865,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -869,7 +877,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -881,7 +889,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -893,7 +901,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -909,7 +917,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -923,7 +931,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -937,7 +945,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -951,7 +959,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -963,7 +971,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -975,7 +983,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -993,7 +1001,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -1009,7 +1017,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1025,7 +1033,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -1041,7 +1049,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -1057,7 +1065,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -1073,7 +1081,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -1089,7 +1097,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -1103,7 +1111,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1117,7 +1125,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -1131,7 +1139,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
@@ -1145,7 +1153,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -1159,7 +1167,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1175,7 +1183,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -1189,7 +1197,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1201,7 +1209,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -1215,7 +1223,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
         <v>19</v>
@@ -1227,7 +1235,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
         <v>22</v>
@@ -1239,7 +1247,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -1255,7 +1263,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -1269,7 +1277,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -1283,7 +1291,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -1297,7 +1305,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -1309,7 +1317,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>22</v>
@@ -1320,7 +1328,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -1336,7 +1344,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
@@ -1350,7 +1358,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -1364,7 +1372,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
         <v>16</v>
@@ -1378,7 +1386,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
         <v>19</v>
@@ -1392,7 +1400,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -1406,7 +1414,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -1422,7 +1430,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
         <v>11</v>
@@ -1436,7 +1444,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -1450,7 +1458,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
         <v>16</v>
@@ -1464,7 +1472,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -1478,7 +1486,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
         <v>22</v>
@@ -1492,71 +1500,81 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>51</v>
       </c>
@@ -1568,7 +1586,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
         <v>11</v>
@@ -1578,7 +1596,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -1588,7 +1606,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
         <v>16</v>
@@ -1598,7 +1616,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -1608,7 +1626,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>22</v>
@@ -1618,7 +1636,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>52</v>
       </c>
@@ -1630,7 +1648,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
         <v>11</v>
@@ -1640,7 +1658,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="2" t="s">
         <v>13</v>
@@ -1650,7 +1668,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="2" t="s">
         <v>16</v>
@@ -1660,7 +1678,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -1670,7 +1688,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="2" t="s">
         <v>22</v>

--- a/工作量收集.xlsx
+++ b/工作量收集.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024C0017-1BCF-423E-8A28-B0CC5D54DD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="756" windowWidth="20532" windowHeight="11748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="750" windowWidth="20535" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="90">
   <si>
     <t>工作周</t>
   </si>
@@ -352,11 +351,19 @@
   <si>
     <t>了解软件测试</t>
   </si>
+  <si>
+    <t>依赖注入的学习与总结</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD内容检查和整合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -707,22 +714,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="43.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.625" customWidth="1"/>
+    <col min="4" max="4" width="45.625" customWidth="1"/>
+    <col min="5" max="5" width="38.375" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -762,7 +769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -774,7 +781,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -788,7 +795,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -802,7 +809,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -816,7 +823,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -828,7 +835,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -844,7 +851,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -858,7 +865,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -872,7 +879,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -884,7 +891,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -896,7 +903,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -908,7 +915,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -924,7 +931,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -938,7 +945,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -952,7 +959,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -966,7 +973,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -978,7 +985,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -990,7 +997,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -1008,7 +1015,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -1024,7 +1031,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -1040,7 +1047,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -1056,7 +1063,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -1072,7 +1079,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -1088,7 +1095,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -1104,7 +1111,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
@@ -1118,7 +1125,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -1132,7 +1139,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -1146,7 +1153,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
@@ -1160,7 +1167,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -1174,7 +1181,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1190,7 +1197,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -1204,7 +1211,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -1216,7 +1223,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -1230,19 +1237,21 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="D36" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
         <v>22</v>
@@ -1256,7 +1265,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -1272,7 +1281,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -1286,7 +1295,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -1300,7 +1309,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -1314,19 +1323,21 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D42" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>22</v>
@@ -1340,7 +1351,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -1356,7 +1367,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
@@ -1370,7 +1381,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -1384,7 +1395,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
         <v>16</v>
@@ -1398,7 +1409,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
         <v>19</v>
@@ -1412,7 +1423,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -1426,7 +1437,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -1442,7 +1453,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
         <v>11</v>
@@ -1456,7 +1467,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -1470,7 +1481,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="2" t="s">
         <v>16</v>
@@ -1484,7 +1495,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -1498,7 +1509,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="2" t="s">
         <v>22</v>
@@ -1512,7 +1523,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -1526,7 +1537,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
         <v>11</v>
@@ -1538,7 +1549,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -1550,7 +1561,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
         <v>16</v>
@@ -1562,7 +1573,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -1574,7 +1585,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="2" t="s">
         <v>22</v>
@@ -1586,7 +1597,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>51</v>
       </c>
@@ -1598,7 +1609,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="2" t="s">
         <v>11</v>
@@ -1608,7 +1619,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -1618,7 +1629,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="2" t="s">
         <v>16</v>
@@ -1628,7 +1639,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -1638,7 +1649,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="2" t="s">
         <v>22</v>
@@ -1648,7 +1659,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>52</v>
       </c>
@@ -1660,7 +1671,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="2" t="s">
         <v>11</v>
@@ -1670,7 +1681,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="2" t="s">
         <v>13</v>
@@ -1680,7 +1691,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="2" t="s">
         <v>16</v>
@@ -1690,7 +1701,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -1700,7 +1711,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="2" t="s">
         <v>22</v>
